--- a/biology/Médecine/Alexandre_Guéniot/Alexandre_Guéniot.xlsx
+++ b/biology/Médecine/Alexandre_Guéniot/Alexandre_Guéniot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_Gu%C3%A9niot</t>
+          <t>Alexandre_Guéniot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Guéniot, né le 8 novembre 1832 à Tignécourt (Vosges) et mort le 15 juillet 1935 à Paris,  est un médecin français spécialiste d'obstétrique et de gynécologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_Gu%C3%A9niot</t>
+          <t>Alexandre_Guéniot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études de médecine à Dijon et y est reçu licencié ès-sciences naturelles. En 1855, il vient à Paris où il devient interne et est plusieurs fois lauréat des hôpitaux de Paris. Devenu médecin (1862) avec une thèse sur les Éruptions scarlatiniformes des femmes en couches, il est nommé l'année suivante chef de clinique.
 Il devient successivement chirurgien des hôpitaux (1865) puis professeur agrégé d'obstétrique à la faculté de médecine de Paris avec une thèse consacrée aux Luxations congénitales de la hanche, au point de vue obstétrical. Il exerce comme chirurgien à l'hospice des Enfants-Assistés (1867-1889) puis devient chirurgien en chef de la Maternité (1889-1894).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre_Gu%C3%A9niot</t>
+          <t>Alexandre_Guéniot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De certaines éruptions, dites miliaires et scarlatiniformes, des femmes en couche, ou de la scarlatinoïde puerpérale, Rignoux, 1862, 99 p., Thèse de médecine
 Des Vomissements incoercibles pendant la grossesse, E. Martinet, 1863, 127 p, Thèse d'agrégation en chirurgie
@@ -570,7 +586,7 @@
 Souvenirs anecdotiques et médicaux (1856-1871), J.-B. Baillière      et fils, 1927, 221 p.
 Souvenirs parisiens de la guerre de 1870 et de la Commune, J.-B. Baillière et fils, 1928, 119 p. (Gallica)
 Pour vivre cent ans ou l'Art de prolonger ses jours, J.-B. Baillière et fils, 1931, 210 p.
-Aperçus touchant les oiseaux, les insectes et les plantes (trois mondes d'une vie intense autour de nous), J.-B. Baillière et fils,, 1934,</t>
+Aperçus touchant les oiseaux, les insectes et les plantes (trois mondes d'une vie intense autour de nous), J.-B. Baillière et fils 1934,</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre_Gu%C3%A9niot</t>
+          <t>Alexandre_Guéniot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Larousse du XXe siècle
 Dictionnaire des vosgiens célèbres ecrivosges.com, consulté le 14 février 2011
